--- a/doc/alice/lesson_member.xlsx
+++ b/doc/alice/lesson_member.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="10695" windowHeight="10920"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="19335" windowHeight="10920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -17,147 +17,465 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
-  <si>
-    <t>member</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="153">
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>lesson</t>
   </si>
   <si>
     <t>student</t>
   </si>
   <si>
-    <t>dates</t>
-  </si>
-  <si>
-    <t>luojiuyu</t>
+    <t>camp</t>
+  </si>
+  <si>
+    <t>rest_schedule</t>
+  </si>
+  <si>
+    <t>龙岗民警子女篮球训练课程</t>
   </si>
   <si>
     <t>骆九宇</t>
   </si>
   <si>
-    <t>欧阳宇航的外公</t>
+    <t>大热篮球俱乐部</t>
+  </si>
+  <si>
+    <t>大热常规班</t>
   </si>
   <si>
     <t>欧阳宇航</t>
   </si>
   <si>
-    <t>victor</t>
-  </si>
-  <si>
     <t>吴宇昊</t>
   </si>
   <si>
     <t>李正昊</t>
   </si>
   <si>
-    <t>吴靖宇wjy</t>
-  </si>
-  <si>
     <t>吴靖宇</t>
   </si>
   <si>
-    <t>huangzq</t>
-  </si>
-  <si>
     <t>黄子骞</t>
   </si>
   <si>
-    <t>张春丽＆</t>
-  </si>
-  <si>
     <t>赖德瑞</t>
   </si>
   <si>
-    <t>龙船????唐力</t>
-  </si>
-  <si>
     <t>唐愈翔</t>
   </si>
   <si>
-    <t>yolanda传奇</t>
-  </si>
-  <si>
     <t>刘秉松</t>
   </si>
   <si>
-    <t>zhouyinmu</t>
-  </si>
-  <si>
     <t>周尹木</t>
   </si>
   <si>
-    <t>飘</t>
-  </si>
-  <si>
     <t>蓝炫皓</t>
   </si>
   <si>
-    <t>浪花</t>
-  </si>
-  <si>
     <t>李祖帆</t>
   </si>
   <si>
-    <t>Dorothy</t>
-  </si>
-  <si>
     <t>刘政翰</t>
   </si>
   <si>
-    <t>Jack123</t>
-  </si>
-  <si>
     <t>林子骞</t>
   </si>
   <si>
     <t>刘庭彦</t>
   </si>
   <si>
-    <t>休闲的人²⁰¹⁷</t>
-  </si>
-  <si>
     <t>胡宇菲</t>
   </si>
   <si>
-    <t>????✨Mandy*????</t>
-  </si>
-  <si>
     <t>陈智斌</t>
   </si>
   <si>
-    <t>听海</t>
-  </si>
-  <si>
     <t>梁思诚</t>
   </si>
   <si>
-    <t>hcyhcy</t>
-  </si>
-  <si>
     <t>黄川越</t>
   </si>
   <si>
-    <t>ൠ杨ྉ子ྉൠ</t>
-  </si>
-  <si>
     <t>吴贻然</t>
   </si>
   <si>
-    <t>黄之麓666</t>
-  </si>
-  <si>
     <t>黄之麓</t>
   </si>
   <si>
-    <t>liwentao</t>
-  </si>
-  <si>
     <t>李闻韬</t>
   </si>
   <si>
-    <t>Lynch</t>
-  </si>
-  <si>
     <t>林弋骁</t>
+  </si>
+  <si>
+    <t>荣光篮球强化（测试）</t>
+  </si>
+  <si>
+    <t>测试1</t>
+  </si>
+  <si>
+    <t>荣光训练营</t>
+  </si>
+  <si>
+    <t>刘永锋</t>
+  </si>
+  <si>
+    <t>蒙致远</t>
+  </si>
+  <si>
+    <t>柯艾锐</t>
+  </si>
+  <si>
+    <t>AKcross课程</t>
+  </si>
+  <si>
+    <t>刘羽</t>
+  </si>
+  <si>
+    <t>AKcross训练营</t>
+  </si>
+  <si>
+    <t>陈仕杰</t>
+  </si>
+  <si>
+    <t>陈逸昕</t>
+  </si>
+  <si>
+    <t>瞿士杰</t>
+  </si>
+  <si>
+    <t>鄭子軒</t>
+  </si>
+  <si>
+    <t>杨熙</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>平台示例请勿购买</t>
+  </si>
+  <si>
+    <t>大热</t>
+  </si>
+  <si>
+    <t>准行者训练营</t>
+  </si>
+  <si>
+    <t>大热1</t>
+  </si>
+  <si>
+    <t>大热2</t>
+  </si>
+  <si>
+    <t>刘子豪</t>
+  </si>
+  <si>
+    <t>孟想</t>
+  </si>
+  <si>
+    <t>洪新铠</t>
+  </si>
+  <si>
+    <t>何锦宸</t>
+  </si>
+  <si>
+    <t>陈易</t>
+  </si>
+  <si>
+    <t>蒋成栋</t>
+  </si>
+  <si>
+    <t>王国宇</t>
+  </si>
+  <si>
+    <t>王昱泽</t>
+  </si>
+  <si>
+    <t>牛子儒</t>
+  </si>
+  <si>
+    <t>塘朗追梦队</t>
+  </si>
+  <si>
+    <t>郑明宇</t>
+  </si>
+  <si>
+    <t>谭晟中</t>
+  </si>
+  <si>
+    <t>肖振兴</t>
+  </si>
+  <si>
+    <t>谭天笑</t>
+  </si>
+  <si>
+    <t>南外文华快艇队</t>
+  </si>
+  <si>
+    <t>孙乐知</t>
+  </si>
+  <si>
+    <t>郭浩麟</t>
+  </si>
+  <si>
+    <t>王珑桥</t>
+  </si>
+  <si>
+    <t>周润锋</t>
+  </si>
+  <si>
+    <t>陈米洛</t>
+  </si>
+  <si>
+    <t>柏成恩</t>
+  </si>
+  <si>
+    <t>朱俊亦</t>
+  </si>
+  <si>
+    <t>何思源</t>
+  </si>
+  <si>
+    <t>李昊晟</t>
+  </si>
+  <si>
+    <t>卢星丞</t>
+  </si>
+  <si>
+    <t>强亦宸</t>
+  </si>
+  <si>
+    <t>杨鑫财</t>
+  </si>
+  <si>
+    <t>万博宇</t>
+  </si>
+  <si>
+    <t>邱智鸿</t>
+  </si>
+  <si>
+    <t>王炫程</t>
+  </si>
+  <si>
+    <t>刘家琦</t>
+  </si>
+  <si>
+    <t>张文瑄</t>
+  </si>
+  <si>
+    <t>薛若鸿</t>
+  </si>
+  <si>
+    <t>严振轩</t>
+  </si>
+  <si>
+    <t>郭皓晗</t>
+  </si>
+  <si>
+    <t>周学谦</t>
+  </si>
+  <si>
+    <t>冯镇壕</t>
+  </si>
+  <si>
+    <t>周一泉</t>
+  </si>
+  <si>
+    <t>潘乐航</t>
+  </si>
+  <si>
+    <t>汪星辰</t>
+  </si>
+  <si>
+    <t>马明道</t>
+  </si>
+  <si>
+    <t>谭正中</t>
+  </si>
+  <si>
+    <t>下午茶篮球课（有赠送课时）</t>
+  </si>
+  <si>
+    <t>高燕</t>
+  </si>
+  <si>
+    <t>woo篮球兴趣训练营</t>
+  </si>
+  <si>
+    <t>小霖</t>
+  </si>
+  <si>
+    <t>哔哔哔</t>
+  </si>
+  <si>
+    <t>Bingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GT </t>
+  </si>
+  <si>
+    <t>刘嘉</t>
+  </si>
+  <si>
+    <t>覃诗翔</t>
+  </si>
+  <si>
+    <t>柏泓庚</t>
+  </si>
+  <si>
+    <t>杜宇轩</t>
+  </si>
+  <si>
+    <t>康正浩</t>
+  </si>
+  <si>
+    <t>崔展豪</t>
+  </si>
+  <si>
+    <t>洪旭林</t>
+  </si>
+  <si>
+    <t>石原炜</t>
+  </si>
+  <si>
+    <t>王北鲲</t>
+  </si>
+  <si>
+    <t>唐佳诺</t>
+  </si>
+  <si>
+    <t>刘炜文</t>
+  </si>
+  <si>
+    <t>罗仕杰</t>
+  </si>
+  <si>
+    <t>王廖聪</t>
+  </si>
+  <si>
+    <t>郭栩源</t>
+  </si>
+  <si>
+    <t>张益畅</t>
+  </si>
+  <si>
+    <t>彭梓睿</t>
+  </si>
+  <si>
+    <t>任志诚</t>
+  </si>
+  <si>
+    <t>郑新浩</t>
+  </si>
+  <si>
+    <t>郭子阅</t>
+  </si>
+  <si>
+    <t>刘阳</t>
+  </si>
+  <si>
+    <t>冯啟桓</t>
+  </si>
+  <si>
+    <t>杨欣霈</t>
+  </si>
+  <si>
+    <t>汪子杰</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 李承彧</t>
+  </si>
+  <si>
+    <t>谈朔显</t>
+  </si>
+  <si>
+    <t>罗宁</t>
+  </si>
+  <si>
+    <t>花梓鹏</t>
+  </si>
+  <si>
+    <t>李俊晔</t>
+  </si>
+  <si>
+    <t>陈江函</t>
+  </si>
+  <si>
+    <t>阮烨才</t>
+  </si>
+  <si>
+    <t>吴浩睿</t>
+  </si>
+  <si>
+    <t>叶子枫</t>
+  </si>
+  <si>
+    <t>龚湖宸</t>
+  </si>
+  <si>
+    <t>程翰哲</t>
+  </si>
+  <si>
+    <t>周煜轩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 戴溪亭</t>
+  </si>
+  <si>
+    <t>张圣泽</t>
+  </si>
+  <si>
+    <t>雷卓凡</t>
+  </si>
+  <si>
+    <t>秦铭远</t>
+  </si>
+  <si>
+    <t>严俊朗</t>
+  </si>
+  <si>
+    <t>许辰镝</t>
+  </si>
+  <si>
+    <t>张皓然</t>
+  </si>
+  <si>
+    <t>蒙卓朗</t>
+  </si>
+  <si>
+    <t>杜沛霖</t>
+  </si>
+  <si>
+    <t>欧阳舒轩</t>
+  </si>
+  <si>
+    <t>李卓逸</t>
+  </si>
+  <si>
+    <t>刘凤杰</t>
+  </si>
+  <si>
+    <t>方泓锴</t>
+  </si>
+  <si>
+    <t>谢欣桦</t>
+  </si>
+  <si>
+    <t>李兆堂</t>
+  </si>
+  <si>
+    <t>侯朝歌</t>
+  </si>
+  <si>
+    <t>辛禹霏</t>
+  </si>
+  <si>
+    <t>张诗婷</t>
   </si>
 </sst>
 </file>
@@ -504,18 +822,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" customHeight="1">
+    <row r="1" spans="1:5" ht="16.5" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -525,264 +845,2362 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A2" s="1">
+        <v>43060.399340277778</v>
+      </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A3" s="1">
+        <v>43060.618472222224</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A4" s="1">
+        <v>43060.618877314817</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>43060.399340277778</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A3" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A5" s="1">
+        <v>43060.619791666664</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A6" s="1">
+        <v>43060.627442129633</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A7" s="1">
+        <v>43060.627928240741</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A8" s="1">
+        <v>43060.629189814812</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A9" s="1">
+        <v>43060.629490740743</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A10" s="1">
+        <v>43060.630069444444</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A11" s="1">
+        <v>43060.630416666667</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A12" s="1">
+        <v>43060.631168981483</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A13" s="1">
+        <v>43060.632025462961</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A14" s="1">
+        <v>43060.632407407407</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A15" s="1">
+        <v>43060.632905092592</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A16" s="1">
+        <v>43060.637812499997</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A17" s="1">
+        <v>43061.639386574076</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A18" s="1">
+        <v>43061.645775462966</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A19" s="1">
+        <v>43061.648321759261</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A20" s="1">
+        <v>43061.649444444447</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A21" s="1">
+        <v>43061.68582175926</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A22" s="1">
+        <v>43061.687523148146</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
-        <v>43060.618472222224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>43060.618877314817</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A5">
-        <v>18923856665</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="23" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A23" s="1">
+        <v>43061.722870370373</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A24" s="1">
+        <v>43061.734293981484</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A25" s="1">
+        <v>43063.601481481484</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A26" s="1">
+        <v>43064.464143518519</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A27" s="1">
+        <v>43065.610046296293</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A28" s="1">
+        <v>43068.428043981483</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A29" s="1">
+        <v>43068.513298611113</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A30" s="1">
+        <v>43068.679166666669</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A31" s="1">
+        <v>43068.702627314815</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A32" s="1">
+        <v>43068.844837962963</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A33" s="1">
+        <v>43070.443333333336</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A34" s="1">
+        <v>43072.459560185183</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A35" s="1">
+        <v>43076.739791666667</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A36" s="1">
+        <v>43077.619513888887</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A37" s="1">
+        <v>43077.691099537034</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A38" s="1">
+        <v>43077.696620370371</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A39" s="1">
+        <v>43077.71912037037</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A40" s="1">
+        <v>43077.840208333335</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A41" s="1">
+        <v>43079.607534722221</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A42" s="1">
+        <v>43081.486840277779</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A43" s="1">
+        <v>43081.48773148148</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A44" s="1">
+        <v>43081.52542824074</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A45" s="1">
+        <v>43081.59170138889</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A46" s="1">
+        <v>43083.658553240741</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A47" s="1">
+        <v>43085.526469907411</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A48" s="1">
+        <v>43085.683657407404</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A49" s="1">
+        <v>43086.64472222222</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A50" s="1">
+        <v>43087.316874999997</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A51" s="1">
+        <v>43087.447129629632</v>
+      </c>
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A52" s="1">
+        <v>43087.476574074077</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A53" s="1">
+        <v>43087.510636574072</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A54" s="1">
+        <v>43087.512002314812</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A55" s="1">
+        <v>43087.651898148149</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A56" s="1">
+        <v>43087.659988425927</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A57" s="1">
+        <v>43087.682812500003</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A58" s="1">
+        <v>43087.685624999998</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A59" s="1">
+        <v>43087.687824074077</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E59">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A60" s="1">
+        <v>43087.694178240738</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A61" s="1">
+        <v>43087.710081018522</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A62" s="1">
+        <v>43087.736030092594</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A63" s="1">
+        <v>43087.746898148151</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>74</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A64" s="1">
+        <v>43087.752395833333</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A65" s="1">
+        <v>43087.75953703704</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A66" s="1">
+        <v>43087.764664351853</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A67" s="1">
+        <v>43088.599444444444</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A68" s="1">
+        <v>43088.600266203706</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A69" s="1">
+        <v>43088.601724537039</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>80</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A70" s="1">
+        <v>43088.602118055554</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A71" s="1">
+        <v>43088.602511574078</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A72" s="1">
+        <v>43088.602708333332</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A73" s="1">
+        <v>43088.603136574071</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A74" s="1">
+        <v>43088.604027777779</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>85</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A75" s="1">
+        <v>43088.604699074072</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A76" s="1">
+        <v>43088.606296296297</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>87</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A77" s="1">
+        <v>43088.606631944444</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>88</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A78" s="1">
+        <v>43088.606990740744</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A79" s="1">
+        <v>43088.607291666667</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A80" s="1">
+        <v>43088.607939814814</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A81" s="1">
+        <v>43088.647696759261</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>92</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A82" s="1">
+        <v>43089.512372685182</v>
+      </c>
+      <c r="B82" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" t="s">
+        <v>94</v>
+      </c>
+      <c r="D82" t="s">
+        <v>95</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A83" s="1">
+        <v>43089.514479166668</v>
+      </c>
+      <c r="B83" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83" t="s">
+        <v>96</v>
+      </c>
+      <c r="D83" t="s">
+        <v>95</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A84" s="1">
+        <v>43089.523287037038</v>
+      </c>
+      <c r="B84" t="s">
+        <v>93</v>
+      </c>
+      <c r="C84" t="s">
+        <v>97</v>
+      </c>
+      <c r="D84" t="s">
+        <v>95</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A85" s="1">
+        <v>43089.526365740741</v>
+      </c>
+      <c r="B85" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" t="s">
+        <v>98</v>
+      </c>
+      <c r="D85" t="s">
+        <v>95</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A86" s="1">
+        <v>43089.531967592593</v>
+      </c>
+      <c r="B86" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" t="s">
+        <v>99</v>
+      </c>
+      <c r="D86" t="s">
+        <v>95</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A87" s="1">
+        <v>43089.546701388892</v>
+      </c>
+      <c r="B87" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" t="s">
+        <v>100</v>
+      </c>
+      <c r="D87" t="s">
+        <v>95</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A88" s="1">
+        <v>43089.706689814811</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>101</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A89" s="1">
+        <v>43089.767511574071</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>102</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A90" s="1">
+        <v>43089.796666666669</v>
+      </c>
+      <c r="B90" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90" t="s">
+        <v>103</v>
+      </c>
+      <c r="D90" t="s">
+        <v>39</v>
+      </c>
+      <c r="E90">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A91" s="1">
+        <v>43090.605578703704</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A92" s="1">
+        <v>43090.605949074074</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>105</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A93" s="1">
+        <v>43090.606203703705</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>106</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A94" s="1">
+        <v>43090.606469907405</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>107</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A95" s="1">
+        <v>43090.606932870367</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>108</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A96" s="1">
+        <v>43090.607222222221</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>109</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A97" s="1">
+        <v>43090.607430555552</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>110</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97">
         <v>9</v>
       </c>
-      <c r="C5" s="1">
-        <v>43060.619791666664</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A6" t="s">
+    </row>
+    <row r="98" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A98" s="1">
+        <v>43090.607777777775</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>111</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A99" s="1">
+        <v>43090.608090277776</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>112</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A100" s="1">
+        <v>43090.609120370369</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>113</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A101" s="1">
+        <v>43090.609467592592</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>114</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A102" s="1">
+        <v>43090.609756944446</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>115</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A103" s="1">
+        <v>43090.609976851854</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>116</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A104" s="1">
+        <v>43090.610231481478</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>117</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A105" s="1">
+        <v>43090.61619212963</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>118</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A106" s="1">
+        <v>43090.616643518515</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>119</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A107" s="1">
+        <v>43090.617800925924</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>120</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A108" s="1">
+        <v>43090.618009259262</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>121</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A109" s="1">
+        <v>43090.618171296293</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>122</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A110" s="1">
+        <v>43090.618368055555</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>123</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A111" s="1">
+        <v>43090.618842592594</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>124</v>
+      </c>
+      <c r="D111" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A112" s="1">
+        <v>43090.619120370371</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>125</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A113" s="1">
+        <v>43090.619618055556</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>126</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1">
-        <v>43060.627442129633</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A7" t="s">
+    </row>
+    <row r="114" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A114" s="1">
+        <v>43090.619884259257</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>127</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A115" s="1">
+        <v>43090.620219907411</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>128</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A116" s="1">
+        <v>43090.620567129627</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s">
+        <v>129</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A117" s="1">
+        <v>43090.634745370371</v>
+      </c>
+      <c r="B117" t="s">
+        <v>60</v>
+      </c>
+      <c r="C117" t="s">
+        <v>130</v>
+      </c>
+      <c r="D117" t="s">
+        <v>39</v>
+      </c>
+      <c r="E117">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A118" s="1">
+        <v>43090.638206018521</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>131</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A119" s="1">
+        <v>43090.638472222221</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>132</v>
+      </c>
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A120" s="1">
+        <v>43090.638726851852</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>133</v>
+      </c>
+      <c r="D120" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A121" s="1">
+        <v>43090.638923611114</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
+        <v>134</v>
+      </c>
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A122" s="1">
+        <v>43090.639189814814</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>135</v>
+      </c>
+      <c r="D122" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A123" s="1">
+        <v>43090.639490740738</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s">
+        <v>136</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A124" s="1">
+        <v>43090.639722222222</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
+        <v>137</v>
+      </c>
+      <c r="D124" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A125" s="1">
+        <v>43090.643564814818</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" t="s">
+        <v>138</v>
+      </c>
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A126" s="1">
+        <v>43090.646307870367</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" t="s">
+        <v>139</v>
+      </c>
+      <c r="D126" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A127" s="1">
+        <v>43090.647314814814</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>140</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A128" s="1">
+        <v>43090.647662037038</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" t="s">
+        <v>141</v>
+      </c>
+      <c r="D128" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A129" s="1">
+        <v>43090.647835648146</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" t="s">
+        <v>142</v>
+      </c>
+      <c r="D129" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A130" s="1">
+        <v>43090.648101851853</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" t="s">
+        <v>143</v>
+      </c>
+      <c r="D130" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A131" s="1">
+        <v>43090.648368055554</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" t="s">
+        <v>144</v>
+      </c>
+      <c r="D131" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A132" s="1">
+        <v>43090.648611111108</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
+        <v>145</v>
+      </c>
+      <c r="D132" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A133" s="1">
+        <v>43090.649629629632</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>146</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1">
-        <v>43060.627928240741</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1">
-        <v>43060.629189814812</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1">
-        <v>43060.629490740743</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="134" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A134" s="1">
+        <v>43090.650590277779</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s">
+        <v>147</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A135" s="1">
+        <v>43090.651469907411</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" t="s">
+        <v>148</v>
+      </c>
+      <c r="D135" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A136" s="1">
+        <v>43090.652268518519</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" t="s">
+        <v>149</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136">
         <v>19</v>
       </c>
-      <c r="C10" s="1">
-        <v>43060.630069444444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1">
-        <v>43060.630416666667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1">
-        <v>43060.631168981483</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1">
-        <v>43060.632025462961</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1">
-        <v>43060.632407407407</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1">
-        <v>43060.632905092592</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A16">
-        <v>19782174</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="1">
-        <v>43060.637812499997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="1">
-        <v>43061.639386574076</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="1">
-        <v>43061.645775462966</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="1">
-        <v>43061.648321759261</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="1">
-        <v>43061.649444444447</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="1">
-        <v>43061.68582175926</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="1">
-        <v>43061.687523148146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="1">
-        <v>43061.722870370373</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="1">
-        <v>43061.734293981484</v>
+    </row>
+    <row r="137" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A137" s="1">
+        <v>43090.729270833333</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" t="s">
+        <v>150</v>
+      </c>
+      <c r="D137" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A138" s="1">
+        <v>43090.729594907411</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" t="s">
+        <v>151</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A139" s="1">
+        <v>43090.729780092595</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" t="s">
+        <v>152</v>
+      </c>
+      <c r="D139" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
